--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3700.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3700.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.377175022357116</v>
+        <v>1.123652100563049</v>
       </c>
       <c r="B1">
-        <v>2.843430483649668</v>
+        <v>3.424921274185181</v>
       </c>
       <c r="C1">
-        <v>7.525044335755633</v>
+        <v>4.526587009429932</v>
       </c>
       <c r="D1">
-        <v>1.946261070010895</v>
+        <v>2.086937665939331</v>
       </c>
       <c r="E1">
-        <v>1.002485700090552</v>
+        <v>1.576254963874817</v>
       </c>
     </row>
   </sheetData>
